--- a/medicine/Mort/Cimetière_karaïte_de_Varsovie/Cimetière_karaïte_de_Varsovie.xlsx
+++ b/medicine/Mort/Cimetière_karaïte_de_Varsovie/Cimetière_karaïte_de_Varsovie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_kara%C3%AFte_de_Varsovie</t>
+          <t>Cimetière_karaïte_de_Varsovie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière karaïte de Varsovie est l'unique cimetière de la communauté karaïte en Pologne. Ouvert en 1890, il est toujours en service aujourd'hui (2012).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_kara%C3%AFte_de_Varsovie</t>
+          <t>Cimetière_karaïte_de_Varsovie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière est situé au numéro 34 de la rue Redutowa dans l'arrondissement de Wola à Varsovie. L'autorisation de créer un cimetière karaïte à Varsovie est donnée depuis la Crimée par le hakham de Tauride[1]. Le terrain est acquis par des marchands de tabac originaires de Crimée auprès de la direction du cimetière orthodoxe tout proche. Une clôture est construite autour du terrain dans les années 1950. Plus tard, le cimetière est agrandi, passant d'une superficie d'environ 0,05 hectare à 0,1 hectare. On compte aujourd'hui une centaine de sépultures. Les pierres tombales sont caractéristiques, avec des inscriptions en langue karaïte. La plus ancienne tombe est celle de Saduk Osipovitch Kefeli, originaire de Théodosie, mort en 1895.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est situé au numéro 34 de la rue Redutowa dans l'arrondissement de Wola à Varsovie. L'autorisation de créer un cimetière karaïte à Varsovie est donnée depuis la Crimée par le hakham de Tauride. Le terrain est acquis par des marchands de tabac originaires de Crimée auprès de la direction du cimetière orthodoxe tout proche. Une clôture est construite autour du terrain dans les années 1950. Plus tard, le cimetière est agrandi, passant d'une superficie d'environ 0,05 hectare à 0,1 hectare. On compte aujourd'hui une centaine de sépultures. Les pierres tombales sont caractéristiques, avec des inscriptions en langue karaïte. La plus ancienne tombe est celle de Saduk Osipovitch Kefeli, originaire de Théodosie, mort en 1895.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_kara%C3%AFte_de_Varsovie</t>
+          <t>Cimetière_karaïte_de_Varsovie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités qui y sont enterrées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rafał Abkowicz (mort en 1992) – hazzan
 Aleksander Dubiński (mort en 2002) – orientaliste turcologue, spécialiste de la culture karaïte, chercheur à l'université de Varsovie
